--- a/data/trans_orig/Q64A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q64A_R-Estudios-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>98,45; 125,1</t>
+          <t>98,82; 125,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>132,74; 174,48</t>
+          <t>130,25; 175,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>110,16; 154,67</t>
+          <t>110,1; 157,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>136,9; 189,95</t>
+          <t>136,06; 190,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>58,62; 91,96</t>
+          <t>58,45; 90,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,1; 129,3</t>
+          <t>90,84; 130,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,03; 107,97</t>
+          <t>63,7; 108,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>99,6; 158,79</t>
+          <t>101,74; 162,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>89,48; 110,15</t>
+          <t>90,55; 112,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>118,34; 147,76</t>
+          <t>118,55; 148,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>97,71; 132,29</t>
+          <t>99,65; 134,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>130,15; 169,44</t>
+          <t>132,3; 172,6</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>98,37; 111,01</t>
+          <t>98,03; 110,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>113,61; 129,07</t>
+          <t>113,4; 128,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>101,81; 116,45</t>
+          <t>102,32; 117,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,01; 140,55</t>
+          <t>65,33; 140,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,04; 70,32</t>
+          <t>56,6; 69,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>68,97; 83,3</t>
+          <t>68,32; 82,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>75,63; 89,83</t>
+          <t>76,18; 90,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,44; 108,54</t>
+          <t>84,17; 108,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>85,81; 95,26</t>
+          <t>85,61; 94,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>98,14; 109,36</t>
+          <t>98,3; 109,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92,71; 103,37</t>
+          <t>93,3; 103,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>77,73; 124,4</t>
+          <t>72,76; 124,04</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,89; 114,74</t>
+          <t>92,69; 114,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>114,59; 140,78</t>
+          <t>112,46; 141,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>120,18; 142,3</t>
+          <t>119,41; 143,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>138,6; 165,56</t>
+          <t>136,32; 165,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81,87; 105,4</t>
+          <t>82,36; 104,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,15; 114,08</t>
+          <t>87,98; 113,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>100,21; 126,36</t>
+          <t>100,16; 124,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>126,44; 146,76</t>
+          <t>126,83; 145,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,16; 106,53</t>
+          <t>91,13; 107,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>105,53; 124,81</t>
+          <t>106,13; 124,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>114,09; 131,54</t>
+          <t>113,94; 130,96</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>135,28; 151,99</t>
+          <t>135,81; 152,89</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>100,94; 110,44</t>
+          <t>100,34; 109,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>119,66; 133,41</t>
+          <t>120,34; 133,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>111,11; 123,91</t>
+          <t>110,58; 123,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,63; 145,15</t>
+          <t>75,06; 145,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>67,54; 78,61</t>
+          <t>67,85; 78,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,01; 93,24</t>
+          <t>80,09; 92,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>85,5; 98,37</t>
+          <t>85,33; 96,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>100,06; 119,77</t>
+          <t>100,04; 119,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,49; 98,06</t>
+          <t>90,5; 98,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>106,0; 115,36</t>
+          <t>105,78; 114,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>102,57; 111,5</t>
+          <t>102,11; 110,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>90,29; 132,12</t>
+          <t>86,01; 131,99</t>
         </is>
       </c>
     </row>
